--- a/runtime/export/jkxm_mcdm.xlsx
+++ b/runtime/export/jkxm_mcdm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>表序号</t>
   </si>
@@ -55,7 +55,10 @@
     <t>jkxm_nsxydj</t>
   </si>
   <si>
-    <t>***</t>
+    <t>出口退（免）税备案</t>
+  </si>
+  <si>
+    <t>jkxm_cktsba</t>
   </si>
   <si>
     <t>风险发票未处理</t>
@@ -89,8 +92,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -117,7 +120,68 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,88 +197,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,17 +219,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,187 +264,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,17 +510,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,6 +530,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,26 +564,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,27 +585,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,145 +615,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1208,17 +1211,19 @@
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" ht="16.35" spans="1:3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="16.35" spans="1:3">
@@ -1226,10 +1231,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="16.35" spans="1:3">
@@ -1237,10 +1242,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="16.35" spans="1:3">
@@ -1248,10 +1253,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
